--- a/data/WQ_Variables.xlsx
+++ b/data/WQ_Variables.xlsx
@@ -5,26 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5282148\Desktop\whitsundays\R-notes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5282148\Desktop\whitsundays\r-rivers2reef\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59D5735-6DB6-4D74-90F2-F70E601A15E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF18CC63-97CA-4323-A854-3F8AB8FC1D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="490" windowWidth="18650" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29745" yWindow="735" windowWidth="18075" windowHeight="9495" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sites" sheetId="1" r:id="rId1"/>
     <sheet name="WQ-index" sheetId="2" r:id="rId2"/>
     <sheet name="WQ-GV" sheetId="4" r:id="rId3"/>
-    <sheet name="WQ-LOR" sheetId="5" r:id="rId4"/>
-    <sheet name="References" sheetId="3" r:id="rId5"/>
+    <sheet name="GV_long" sheetId="9" r:id="rId4"/>
+    <sheet name="WQ-LOR" sheetId="5" r:id="rId5"/>
+    <sheet name="References" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="177">
   <si>
     <t>Partner</t>
   </si>
@@ -590,12 +602,27 @@
   <si>
     <t>All WQG. PN, PP, Chla, TSS, Secchi = WQG. Turb = WQO.</t>
   </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Dry 2, Wet 12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +776,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1182,7 +1214,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1206,6 +1238,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1251,7 +1285,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1292,11 +1330,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0DD0E03-E7D1-4D67-A944-C24FB4D7EBEF}" name="Table3" displayName="Table3" ref="A1:Y22" totalsRowShown="0">
-  <autoFilter ref="A1:Y22" xr:uid="{B0DD0E03-E7D1-4D67-A944-C24FB4D7EBEF}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0DD0E03-E7D1-4D67-A944-C24FB4D7EBEF}" name="Table3" displayName="Table3" ref="A1:Z22" totalsRowShown="0">
+  <autoFilter ref="A1:Z22" xr:uid="{B0DD0E03-E7D1-4D67-A944-C24FB4D7EBEF}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{D434306A-A914-4DB9-829A-73EE67FD965C}" name="Site code"/>
     <tableColumn id="2" xr3:uid="{AB75C853-33DB-4F44-B4E4-426E0F4B83F6}" name="Site name"/>
+    <tableColumn id="3" xr3:uid="{1A60C520-E0E4-45A0-B5BB-18D923199E84}" name="Site" dataDxfId="0">
+      <calculatedColumnFormula>A2&amp;" "&amp;B2</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="10" xr3:uid="{7C29BE11-E62D-449F-B692-A12E72B220E6}" name="Nox"/>
     <tableColumn id="11" xr3:uid="{7C2AEC91-CFFA-4563-9F7F-E531F8FA0373}" name="PN"/>
     <tableColumn id="12" xr3:uid="{72F8B584-DC61-48BC-9BE5-E347C1171F76}" name="PP"/>
@@ -1326,6 +1367,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49CAE3E3-CBA9-4C6D-A0FE-CEF06050EE5B}" name="Table18" displayName="Table18" ref="A1:F148" totalsRowShown="0">
+  <autoFilter ref="A1:F148" xr:uid="{49CAE3E3-CBA9-4C6D-A0FE-CEF06050EE5B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F132">
+    <sortCondition ref="C1:C148"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{4074CEBB-E7EC-4BE9-83DB-E047094EC6A8}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{1DBEC32E-3B80-44F3-8EF3-648ADDCBD419}" name="Name"/>
+    <tableColumn id="23" xr3:uid="{646642BC-8E4F-4DD5-B6FD-41108486955D}" name="Indicator"/>
+    <tableColumn id="22" xr3:uid="{C94C5C21-DA1A-43FD-8A2F-8354C858F9D0}" name="Value"/>
+    <tableColumn id="24" xr3:uid="{B4EAFDB7-3EBC-47C5-A67B-D9FBE2444303}" name="Stat"/>
+    <tableColumn id="25" xr3:uid="{E1170E3F-9D1D-4544-8775-B5FD4C224C24}" name="Failure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EDDA0EB-6B5F-4B3D-AA64-D981D3966D4A}" name="Table4" displayName="Table4" ref="A1:L4" totalsRowShown="0">
   <autoFilter ref="A1:L4" xr:uid="{3EDDA0EB-6B5F-4B3D-AA64-D981D3966D4A}"/>
   <tableColumns count="12">
@@ -1645,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -3297,39 +3356,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF376DC-0DC3-43CC-B4F6-D641F366E6D4}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" customWidth="1"/>
-    <col min="19" max="19" width="14.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" customWidth="1"/>
-    <col min="23" max="23" width="14.26953125" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" customWidth="1"/>
-    <col min="25" max="25" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" customWidth="1"/>
+    <col min="19" max="19" width="16.6328125" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" customWidth="1"/>
+    <col min="23" max="23" width="15.7265625" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" customWidth="1"/>
+    <col min="25" max="25" width="16.54296875" customWidth="1"/>
+    <col min="26" max="26" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -3337,106 +3397,110 @@
         <v>135</v>
       </c>
       <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>142</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>143</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>144</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>147</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>148</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>150</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>151</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>152</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>153</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>154</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>155</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>156</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9" t="str">
+        <f t="shared" ref="C2:C22" si="0">A2&amp;" "&amp;B2</f>
+        <v>AP_AMB1 Euri Creek</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>129</v>
-      </c>
       <c r="M2" t="s">
         <v>129</v>
       </c>
@@ -3453,10 +3517,10 @@
         <v>129</v>
       </c>
       <c r="R2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T2" t="s">
         <v>131</v>
@@ -3471,43 +3535,47 @@
         <v>131</v>
       </c>
       <c r="X2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>AP_AMB2 Spoil Grounds</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.45</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>129</v>
-      </c>
       <c r="M3" t="s">
         <v>129</v>
       </c>
@@ -3524,10 +3592,10 @@
         <v>129</v>
       </c>
       <c r="R3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T3" t="s">
         <v>131</v>
@@ -3542,43 +3610,47 @@
         <v>131</v>
       </c>
       <c r="X3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y3" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>AP_AMB3 Elliot River</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>129</v>
-      </c>
       <c r="M4" t="s">
         <v>129</v>
       </c>
@@ -3595,10 +3667,10 @@
         <v>129</v>
       </c>
       <c r="R4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T4" t="s">
         <v>131</v>
@@ -3613,43 +3685,47 @@
         <v>131</v>
       </c>
       <c r="X4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" t="s">
         <v>132</v>
       </c>
-      <c r="Y4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>AP_AMB4 Camp Island</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.45</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>129</v>
-      </c>
       <c r="M5" t="s">
         <v>129</v>
       </c>
@@ -3666,10 +3742,10 @@
         <v>129</v>
       </c>
       <c r="R5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T5" t="s">
         <v>131</v>
@@ -3684,43 +3760,47 @@
         <v>131</v>
       </c>
       <c r="X5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y5" t="s">
         <v>132</v>
       </c>
-      <c r="Y5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>AP_AMB5 Holbourne Island</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.8</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.45</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>129</v>
-      </c>
       <c r="M6" t="s">
         <v>129</v>
       </c>
@@ -3737,10 +3817,10 @@
         <v>129</v>
       </c>
       <c r="R6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T6" t="s">
         <v>131</v>
@@ -3755,43 +3835,47 @@
         <v>131</v>
       </c>
       <c r="X6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y6" t="s">
         <v>132</v>
       </c>
-      <c r="Y6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>WHI1 Double Cone Island</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.36</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L7" t="s">
-        <v>130</v>
-      </c>
       <c r="M7" t="s">
         <v>130</v>
       </c>
@@ -3805,13 +3889,13 @@
         <v>130</v>
       </c>
       <c r="Q7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T7" t="s">
         <v>131</v>
@@ -3826,43 +3910,47 @@
         <v>131</v>
       </c>
       <c r="X7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y7" t="s">
         <v>132</v>
       </c>
-      <c r="Y7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>WHI4 Pine Island</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.36</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L8" t="s">
-        <v>130</v>
-      </c>
       <c r="M8" t="s">
         <v>130</v>
       </c>
@@ -3876,13 +3964,13 @@
         <v>130</v>
       </c>
       <c r="Q8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T8" t="s">
         <v>131</v>
@@ -3897,43 +3985,47 @@
         <v>131</v>
       </c>
       <c r="X8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y8" t="s">
         <v>132</v>
       </c>
-      <c r="Y8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>WHI5 Seaforth Island</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.36</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L9" t="s">
-        <v>130</v>
-      </c>
       <c r="M9" t="s">
         <v>130</v>
       </c>
@@ -3947,13 +4039,13 @@
         <v>130</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T9" t="s">
         <v>131</v>
@@ -3968,33 +4060,37 @@
         <v>131</v>
       </c>
       <c r="X9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y9" t="s">
         <v>132</v>
       </c>
-      <c r="Y9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>WHI6 O'Connell River mouth</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.3</v>
       </c>
-      <c r="L10" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10" t="s">
-        <v>130</v>
-      </c>
-      <c r="S10" t="s">
-        <v>131</v>
+      <c r="M10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" t="s">
+        <v>130</v>
       </c>
       <c r="T10" t="s">
         <v>131</v>
@@ -4009,43 +4105,47 @@
         <v>131</v>
       </c>
       <c r="X10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y10" t="s">
         <v>132</v>
       </c>
-      <c r="Y10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>WHI7 Repulse Islands dive mooring</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.36</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
       <c r="M11" t="s">
         <v>130</v>
       </c>
@@ -4059,13 +4159,13 @@
         <v>130</v>
       </c>
       <c r="Q11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T11" t="s">
         <v>131</v>
@@ -4080,40 +4180,44 @@
         <v>131</v>
       </c>
       <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
         <v>132</v>
       </c>
-      <c r="Y11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB1 Freshwater Point</v>
+      </c>
+      <c r="E12">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.45</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>129</v>
-      </c>
       <c r="N12" t="s">
         <v>129</v>
       </c>
@@ -4127,10 +4231,10 @@
         <v>129</v>
       </c>
       <c r="R12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T12" t="s">
         <v>131</v>
@@ -4145,43 +4249,47 @@
         <v>131</v>
       </c>
       <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
         <v>132</v>
       </c>
-      <c r="Y12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB2 Hay Reef</v>
+      </c>
+      <c r="E13">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.45</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="M13" t="s">
-        <v>129</v>
-      </c>
       <c r="N13" t="s">
         <v>129</v>
       </c>
@@ -4195,10 +4303,10 @@
         <v>129</v>
       </c>
       <c r="R13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T13" t="s">
         <v>131</v>
@@ -4213,40 +4321,44 @@
         <v>131</v>
       </c>
       <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
         <v>132</v>
       </c>
-      <c r="Y13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="D14">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB3B Round Top Island</v>
+      </c>
+      <c r="E14">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.45</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
-        <v>129</v>
-      </c>
       <c r="N14" t="s">
         <v>129</v>
       </c>
@@ -4260,10 +4372,10 @@
         <v>129</v>
       </c>
       <c r="R14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
         <v>131</v>
@@ -4278,43 +4390,47 @@
         <v>131</v>
       </c>
       <c r="X14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" t="s">
         <v>132</v>
       </c>
-      <c r="Y14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB5 Slade Island</v>
+      </c>
+      <c r="E15">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.8</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.45</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
-        <v>129</v>
-      </c>
       <c r="N15" t="s">
         <v>129</v>
       </c>
@@ -4328,10 +4444,10 @@
         <v>129</v>
       </c>
       <c r="R15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T15" t="s">
         <v>131</v>
@@ -4346,43 +4462,47 @@
         <v>131</v>
       </c>
       <c r="X15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y15" t="s">
         <v>132</v>
       </c>
-      <c r="Y15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="D16">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB6B Dudgeon Point</v>
+      </c>
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.8</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.45</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="M16" t="s">
-        <v>129</v>
-      </c>
       <c r="N16" t="s">
         <v>129</v>
       </c>
@@ -4396,10 +4516,10 @@
         <v>129</v>
       </c>
       <c r="R16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T16" t="s">
         <v>131</v>
@@ -4414,43 +4534,47 @@
         <v>131</v>
       </c>
       <c r="X16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y16" t="s">
         <v>132</v>
       </c>
-      <c r="Y16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="D17">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB8 Relocation ground (Spoil grounds)</v>
+      </c>
+      <c r="E17">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.8</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.45</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12</v>
       </c>
-      <c r="M17" t="s">
-        <v>129</v>
-      </c>
       <c r="N17" t="s">
         <v>129</v>
       </c>
@@ -4464,10 +4588,10 @@
         <v>129</v>
       </c>
       <c r="R17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T17" t="s">
         <v>131</v>
@@ -4482,40 +4606,44 @@
         <v>131</v>
       </c>
       <c r="X17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y17" t="s">
         <v>132</v>
       </c>
-      <c r="Y17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="D18">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB10 Victor Island</v>
+      </c>
+      <c r="E18">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.45</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>10</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>129</v>
-      </c>
       <c r="N18" t="s">
         <v>129</v>
       </c>
@@ -4529,10 +4657,10 @@
         <v>129</v>
       </c>
       <c r="R18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
         <v>131</v>
@@ -4547,43 +4675,47 @@
         <v>131</v>
       </c>
       <c r="X18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" t="s">
         <v>132</v>
       </c>
-      <c r="Y18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_AMB12 Keswick Island</v>
+      </c>
+      <c r="D19">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.45</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.6</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1</v>
       </c>
-      <c r="L19" t="s">
-        <v>130</v>
-      </c>
       <c r="M19" t="s">
         <v>130</v>
       </c>
@@ -4591,19 +4723,19 @@
         <v>130</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T19" t="s">
         <v>131</v>
@@ -4618,45 +4750,49 @@
         <v>131</v>
       </c>
       <c r="X19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y19" t="s">
         <v>132</v>
       </c>
-      <c r="Y19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>133</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_CAM1 Aquilla Island</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.45</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>10</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
-        <v>130</v>
-      </c>
       <c r="M20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
         <v>129</v>
@@ -4674,7 +4810,7 @@
         <v>129</v>
       </c>
       <c r="S20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T20" t="s">
         <v>131</v>
@@ -4689,45 +4825,49 @@
         <v>131</v>
       </c>
       <c r="X20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y20" t="s">
         <v>132</v>
       </c>
-      <c r="Y20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_CAM2 Carmila_2</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.45</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>10</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
-        <v>130</v>
-      </c>
       <c r="M21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
         <v>129</v>
@@ -4745,7 +4885,7 @@
         <v>129</v>
       </c>
       <c r="S21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T21" t="s">
         <v>131</v>
@@ -4760,80 +4900,3040 @@
         <v>131</v>
       </c>
       <c r="X21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y21" t="s">
         <v>132</v>
       </c>
-      <c r="Y21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>MKY_CAM3 Carmila_3</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>2.8</v>
+      </c>
+      <c r="G22">
+        <v>0.45</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R22" t="s">
+        <v>129</v>
+      </c>
+      <c r="S22" t="s">
+        <v>129</v>
+      </c>
+      <c r="T22" t="s">
+        <v>131</v>
+      </c>
+      <c r="U22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V22" t="s">
+        <v>131</v>
+      </c>
+      <c r="W22" t="s">
+        <v>131</v>
+      </c>
+      <c r="X22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBE5C2E-4580-4EFA-A2EB-297C12D4C964}">
+  <dimension ref="A1:F148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>0.45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3">
+        <v>0.45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>0.45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <v>0.45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <v>0.45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
       <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="E22">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49">
+        <v>2.4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>2.4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51">
+        <v>2.4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53">
+        <v>2.4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54">
         <v>2.8</v>
       </c>
-      <c r="F22">
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55">
+        <v>2.8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56">
+        <v>2.8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57">
+        <v>2.8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58">
+        <v>2.8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59">
+        <v>2.8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60">
+        <v>2.8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61">
+        <v>2.1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62">
+        <v>2.8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <v>2.8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64">
+        <v>2.8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65">
+        <v>2.8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66">
+        <v>2.8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67">
+        <v>2.8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68">
+        <v>2.8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69">
+        <v>2.8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70">
+        <v>0.36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71">
+        <v>0.36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72">
+        <v>0.36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73">
+        <v>1.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>0.36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75">
         <v>0.45</v>
       </c>
-      <c r="G22">
+      <c r="E75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76">
+        <v>0.45</v>
+      </c>
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77">
+        <v>0.45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78">
+        <v>0.45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79">
+        <v>0.45</v>
+      </c>
+      <c r="E79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80">
+        <v>0.45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81">
+        <v>0.45</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82">
+        <v>0.45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83">
+        <v>0.45</v>
+      </c>
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84">
+        <v>0.45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85">
+        <v>0.45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>129</v>
+      </c>
+      <c r="F90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91">
+        <v>1.4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92">
+        <v>1.4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93">
+        <v>1.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95">
+        <v>1.4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="E96" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103">
+        <v>1.6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>10</v>
       </c>
-      <c r="I22">
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>129</v>
+      </c>
+      <c r="F110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+      <c r="F115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>129</v>
+      </c>
+      <c r="F121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>141</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" t="s">
+        <v>141</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" t="s">
+        <v>141</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
-        <v>130</v>
-      </c>
-      <c r="M22" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" t="s">
-        <v>129</v>
-      </c>
-      <c r="O22" t="s">
-        <v>129</v>
-      </c>
-      <c r="P22" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" t="s">
-        <v>131</v>
-      </c>
-      <c r="T22" t="s">
-        <v>131</v>
-      </c>
-      <c r="U22" t="s">
-        <v>131</v>
-      </c>
-      <c r="V22" t="s">
-        <v>131</v>
-      </c>
-      <c r="W22" t="s">
-        <v>131</v>
-      </c>
-      <c r="X22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="E128" t="s">
+        <v>130</v>
+      </c>
+      <c r="F128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>130</v>
+      </c>
+      <c r="F130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>130</v>
+      </c>
+      <c r="F132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" t="s">
+        <v>165</v>
+      </c>
+      <c r="D133">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E133" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E135" t="s">
+        <v>130</v>
+      </c>
+      <c r="F135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" t="s">
+        <v>159</v>
+      </c>
+      <c r="F136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E137" t="s">
+        <v>130</v>
+      </c>
+      <c r="F137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>130</v>
+      </c>
+      <c r="F138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" t="s">
+        <v>130</v>
+      </c>
+      <c r="F139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
+        <v>165</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>130</v>
+      </c>
+      <c r="F140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>165</v>
+      </c>
+      <c r="D141" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" t="s">
+        <v>130</v>
+      </c>
+      <c r="F141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" t="s">
+        <v>130</v>
+      </c>
+      <c r="F142" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" t="s">
+        <v>130</v>
+      </c>
+      <c r="F143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>130</v>
+      </c>
+      <c r="F144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>130</v>
+      </c>
+      <c r="F145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" t="s">
+        <v>165</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>129</v>
+      </c>
+      <c r="F146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>129</v>
+      </c>
+      <c r="F147" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" t="s">
+        <v>165</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4845,7 +7945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FCD58E-0498-4A7D-B773-BBAE940A9D8D}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -5019,7 +8119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDBC881-9CF7-4BCA-96A7-6F184A2DD7B3}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/data/WQ_Variables.xlsx
+++ b/data/WQ_Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5282148\Desktop\whitsundays\r-rivers2reef\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brie.sherow\Desktop\R\r-rivers2reef\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF18CC63-97CA-4323-A854-3F8AB8FC1D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB12A0-09C0-4DE2-98A1-9B71BEEF0252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="735" windowWidth="18075" windowHeight="9495" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23970" yWindow="3420" windowWidth="16185" windowHeight="10455" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sites" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="178">
   <si>
     <t>Partner</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>Dry 2, Wet 12</t>
+  </si>
+  <si>
+    <t>NTU</t>
   </si>
 </sst>
 </file>
@@ -1708,12 +1711,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1733,12 +1736,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>148.13999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>148.01</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>147.94</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>147.91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>148.36000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>148.72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>148.88999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>149.04</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>148.71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>148.86000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>149.34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>149.30000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>149.26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>149.24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>149.25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>149.30000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>149.32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>149.41999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2196,26 +2199,26 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="14" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" customWidth="1"/>
-    <col min="18" max="18" width="44.1796875" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -3362,34 +3365,34 @@
       <selection activeCell="C1" sqref="C1:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" customWidth="1"/>
-    <col min="19" max="19" width="16.6328125" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" customWidth="1"/>
-    <col min="21" max="21" width="13.7265625" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" customWidth="1"/>
-    <col min="23" max="23" width="15.7265625" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" customWidth="1"/>
-    <col min="25" max="25" width="16.54296875" customWidth="1"/>
-    <col min="26" max="26" width="18.90625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="16.5703125" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -4999,12 +5002,12 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5749,7 +5752,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>39</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -7320,7 +7323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -7500,7 +7503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>51</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -7540,7 +7543,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -7560,7 +7563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -7580,7 +7583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -7600,7 +7603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -7620,7 +7623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -7628,7 +7631,7 @@
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D133">
         <v>1.1000000000000001</v>
@@ -7640,7 +7643,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D134">
         <v>1.1000000000000001</v>
@@ -7660,7 +7663,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D135">
         <v>1.1000000000000001</v>
@@ -7680,7 +7683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
         <v>159</v>
@@ -7697,7 +7700,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D137">
         <v>1.1000000000000001</v>
@@ -7717,7 +7720,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -7725,7 +7728,7 @@
         <v>30</v>
       </c>
       <c r="C138" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -7737,7 +7740,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D139" t="s">
         <v>176</v>
@@ -7757,7 +7760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>34</v>
       </c>
       <c r="C140" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -7777,7 +7780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D141" t="s">
         <v>176</v>
@@ -7797,7 +7800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D142" t="s">
         <v>176</v>
@@ -7817,7 +7820,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>40</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
         <v>176</v>
@@ -7837,7 +7840,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>42</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -7857,7 +7860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>44</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -7877,7 +7880,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>47</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>133</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -7897,7 +7900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>50</v>
       </c>
       <c r="C147" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -7917,7 +7920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>51</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>52</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -7953,13 +7956,13 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -8127,9 +8130,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
